--- a/original-passwords.xlsx
+++ b/original-passwords.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DVIR\Desktop\JohnBrace\Projects\Project3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DVIR\Desktop\vacation-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE3B57DB-2258-49E7-83D2-583A19A207F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34ECB0B3-EB92-4D94-8B9E-9FAF46D80F54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CA44154-9081-4FF7-98E5-37C7DA4D7CEF}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="גיליון1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3915,8 +3914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DB2365-0CFF-4803-819A-6FBA4C242A6B}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -4700,19 +4699,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId43" name="Control 1">
+        <control shapeId="2097" r:id="rId43" name="Control 49">
           <controlPr defaultSize="0" r:id="rId44">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4720,24 +4719,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2049" r:id="rId43" name="Control 1"/>
+        <control shapeId="2097" r:id="rId43" name="Control 49"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId45" name="Control 5">
+        <control shapeId="2093" r:id="rId45" name="Control 45">
           <controlPr defaultSize="0" r:id="rId46">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>42</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>42</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4745,24 +4744,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2053" r:id="rId45" name="Control 5"/>
+        <control shapeId="2093" r:id="rId45" name="Control 45"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2057" r:id="rId47" name="Control 9">
+        <control shapeId="2089" r:id="rId47" name="Control 41">
           <controlPr defaultSize="0" r:id="rId48">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>16</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4770,24 +4769,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2057" r:id="rId47" name="Control 9"/>
+        <control shapeId="2089" r:id="rId47" name="Control 41"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2061" r:id="rId49" name="Control 13">
+        <control shapeId="2085" r:id="rId49" name="Control 37">
           <controlPr defaultSize="0" r:id="rId50">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>40</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>40</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4795,24 +4794,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2061" r:id="rId49" name="Control 13"/>
+        <control shapeId="2085" r:id="rId49" name="Control 37"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2065" r:id="rId51" name="Control 17">
+        <control shapeId="2081" r:id="rId51" name="Control 33">
           <controlPr defaultSize="0" r:id="rId52">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>18</xdr:row>
+                <xdr:row>39</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
+                <xdr:row>39</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4820,24 +4819,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2065" r:id="rId51" name="Control 17"/>
+        <control shapeId="2081" r:id="rId51" name="Control 33"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2069" r:id="rId53" name="Control 21">
+        <control shapeId="2077" r:id="rId53" name="Control 29">
           <controlPr defaultSize="0" r:id="rId54">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>38</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>38</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4845,7 +4844,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2069" r:id="rId53" name="Control 21"/>
+        <control shapeId="2077" r:id="rId53" name="Control 29"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -4875,19 +4874,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2077" r:id="rId57" name="Control 29">
+        <control shapeId="2069" r:id="rId57" name="Control 21">
           <controlPr defaultSize="0" r:id="rId58">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>38</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>38</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4895,24 +4894,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2077" r:id="rId57" name="Control 29"/>
+        <control shapeId="2069" r:id="rId57" name="Control 21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2081" r:id="rId59" name="Control 33">
+        <control shapeId="2065" r:id="rId59" name="Control 17">
           <controlPr defaultSize="0" r:id="rId60">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>39</xdr:row>
+                <xdr:row>18</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>39</xdr:row>
+                <xdr:row>18</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4920,24 +4919,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2081" r:id="rId59" name="Control 33"/>
+        <control shapeId="2065" r:id="rId59" name="Control 17"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2085" r:id="rId61" name="Control 37">
+        <control shapeId="2061" r:id="rId61" name="Control 13">
           <controlPr defaultSize="0" r:id="rId62">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>40</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>40</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4945,24 +4944,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2085" r:id="rId61" name="Control 37"/>
+        <control shapeId="2061" r:id="rId61" name="Control 13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2089" r:id="rId63" name="Control 41">
+        <control shapeId="2057" r:id="rId63" name="Control 9">
           <controlPr defaultSize="0" r:id="rId64">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>16</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>16</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4970,24 +4969,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2089" r:id="rId63" name="Control 41"/>
+        <control shapeId="2057" r:id="rId63" name="Control 9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2093" r:id="rId65" name="Control 45">
+        <control shapeId="2053" r:id="rId65" name="Control 5">
           <controlPr defaultSize="0" r:id="rId66">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>42</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>42</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4995,24 +4994,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2093" r:id="rId65" name="Control 45"/>
+        <control shapeId="2053" r:id="rId65" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2097" r:id="rId67" name="Control 49">
+        <control shapeId="2049" r:id="rId67" name="Control 1">
           <controlPr defaultSize="0" r:id="rId68">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -5020,7 +5019,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2097" r:id="rId67" name="Control 49"/>
+        <control shapeId="2049" r:id="rId67" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/original-passwords.xlsx
+++ b/original-passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DVIR\Desktop\vacation-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34ECB0B3-EB92-4D94-8B9E-9FAF46D80F54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F344BAA7-AEE9-413E-9617-D6915EAA8693}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CA44154-9081-4FF7-98E5-37C7DA4D7CEF}"/>
   </bookViews>
@@ -3914,8 +3914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DB2365-0CFF-4803-819A-6FBA4C242A6B}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -4699,19 +4699,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2097" r:id="rId43" name="Control 49">
+        <control shapeId="2049" r:id="rId43" name="Control 1">
           <controlPr defaultSize="0" r:id="rId44">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4719,24 +4719,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2097" r:id="rId43" name="Control 49"/>
+        <control shapeId="2049" r:id="rId43" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2093" r:id="rId45" name="Control 45">
+        <control shapeId="2053" r:id="rId45" name="Control 5">
           <controlPr defaultSize="0" r:id="rId46">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>42</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>42</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4744,24 +4744,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2093" r:id="rId45" name="Control 45"/>
+        <control shapeId="2053" r:id="rId45" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2089" r:id="rId47" name="Control 41">
+        <control shapeId="2057" r:id="rId47" name="Control 9">
           <controlPr defaultSize="0" r:id="rId48">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>16</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>16</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4769,24 +4769,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2089" r:id="rId47" name="Control 41"/>
+        <control shapeId="2057" r:id="rId47" name="Control 9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2085" r:id="rId49" name="Control 37">
+        <control shapeId="2061" r:id="rId49" name="Control 13">
           <controlPr defaultSize="0" r:id="rId50">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>40</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>40</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4794,24 +4794,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2085" r:id="rId49" name="Control 37"/>
+        <control shapeId="2061" r:id="rId49" name="Control 13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2081" r:id="rId51" name="Control 33">
+        <control shapeId="2065" r:id="rId51" name="Control 17">
           <controlPr defaultSize="0" r:id="rId52">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>39</xdr:row>
+                <xdr:row>18</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>39</xdr:row>
+                <xdr:row>18</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4819,24 +4819,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2081" r:id="rId51" name="Control 33"/>
+        <control shapeId="2065" r:id="rId51" name="Control 17"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2077" r:id="rId53" name="Control 29">
+        <control shapeId="2069" r:id="rId53" name="Control 21">
           <controlPr defaultSize="0" r:id="rId54">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>38</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>38</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4844,7 +4844,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2077" r:id="rId53" name="Control 29"/>
+        <control shapeId="2069" r:id="rId53" name="Control 21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -4874,19 +4874,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2069" r:id="rId57" name="Control 21">
+        <control shapeId="2077" r:id="rId57" name="Control 29">
           <controlPr defaultSize="0" r:id="rId58">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>38</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>38</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4894,24 +4894,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2069" r:id="rId57" name="Control 21"/>
+        <control shapeId="2077" r:id="rId57" name="Control 29"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2065" r:id="rId59" name="Control 17">
+        <control shapeId="2081" r:id="rId59" name="Control 33">
           <controlPr defaultSize="0" r:id="rId60">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>18</xdr:row>
+                <xdr:row>39</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
+                <xdr:row>39</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4919,24 +4919,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2065" r:id="rId59" name="Control 17"/>
+        <control shapeId="2081" r:id="rId59" name="Control 33"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2061" r:id="rId61" name="Control 13">
+        <control shapeId="2085" r:id="rId61" name="Control 37">
           <controlPr defaultSize="0" r:id="rId62">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>40</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>40</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4944,24 +4944,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2061" r:id="rId61" name="Control 13"/>
+        <control shapeId="2085" r:id="rId61" name="Control 37"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2057" r:id="rId63" name="Control 9">
+        <control shapeId="2089" r:id="rId63" name="Control 41">
           <controlPr defaultSize="0" r:id="rId64">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>16</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4969,24 +4969,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2057" r:id="rId63" name="Control 9"/>
+        <control shapeId="2089" r:id="rId63" name="Control 41"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId65" name="Control 5">
+        <control shapeId="2093" r:id="rId65" name="Control 45">
           <controlPr defaultSize="0" r:id="rId66">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>42</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>42</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4994,24 +4994,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2053" r:id="rId65" name="Control 5"/>
+        <control shapeId="2093" r:id="rId65" name="Control 45"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId67" name="Control 1">
+        <control shapeId="2097" r:id="rId67" name="Control 49">
           <controlPr defaultSize="0" r:id="rId68">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -5019,7 +5019,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2049" r:id="rId67" name="Control 1"/>
+        <control shapeId="2097" r:id="rId67" name="Control 49"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/original-passwords.xlsx
+++ b/original-passwords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DVIR\Desktop\vacation-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F344BAA7-AEE9-413E-9617-D6915EAA8693}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AAFD13-DCB6-40B0-9345-A2B16E0A05BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CA44154-9081-4FF7-98E5-37C7DA4D7CEF}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="2388" windowHeight="564" xr2:uid="{5CA44154-9081-4FF7-98E5-37C7DA4D7CEF}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון2" sheetId="2" r:id="rId1"/>
@@ -3914,8 +3914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DB2365-0CFF-4803-819A-6FBA4C242A6B}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -4699,19 +4699,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId43" name="Control 1">
+        <control shapeId="2097" r:id="rId43" name="Control 49">
           <controlPr defaultSize="0" r:id="rId44">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4719,24 +4719,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2049" r:id="rId43" name="Control 1"/>
+        <control shapeId="2097" r:id="rId43" name="Control 49"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId45" name="Control 5">
+        <control shapeId="2093" r:id="rId45" name="Control 45">
           <controlPr defaultSize="0" r:id="rId46">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>42</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>42</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4744,24 +4744,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2053" r:id="rId45" name="Control 5"/>
+        <control shapeId="2093" r:id="rId45" name="Control 45"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2057" r:id="rId47" name="Control 9">
+        <control shapeId="2089" r:id="rId47" name="Control 41">
           <controlPr defaultSize="0" r:id="rId48">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>16</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4769,24 +4769,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2057" r:id="rId47" name="Control 9"/>
+        <control shapeId="2089" r:id="rId47" name="Control 41"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2061" r:id="rId49" name="Control 13">
+        <control shapeId="2085" r:id="rId49" name="Control 37">
           <controlPr defaultSize="0" r:id="rId50">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>40</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>40</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4794,24 +4794,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2061" r:id="rId49" name="Control 13"/>
+        <control shapeId="2085" r:id="rId49" name="Control 37"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2065" r:id="rId51" name="Control 17">
+        <control shapeId="2081" r:id="rId51" name="Control 33">
           <controlPr defaultSize="0" r:id="rId52">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>18</xdr:row>
+                <xdr:row>39</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
+                <xdr:row>39</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4819,24 +4819,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2065" r:id="rId51" name="Control 17"/>
+        <control shapeId="2081" r:id="rId51" name="Control 33"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2069" r:id="rId53" name="Control 21">
+        <control shapeId="2077" r:id="rId53" name="Control 29">
           <controlPr defaultSize="0" r:id="rId54">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>38</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>38</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4844,7 +4844,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2069" r:id="rId53" name="Control 21"/>
+        <control shapeId="2077" r:id="rId53" name="Control 29"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -4874,19 +4874,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2077" r:id="rId57" name="Control 29">
+        <control shapeId="2069" r:id="rId57" name="Control 21">
           <controlPr defaultSize="0" r:id="rId58">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>38</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>38</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4894,24 +4894,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2077" r:id="rId57" name="Control 29"/>
+        <control shapeId="2069" r:id="rId57" name="Control 21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2081" r:id="rId59" name="Control 33">
+        <control shapeId="2065" r:id="rId59" name="Control 17">
           <controlPr defaultSize="0" r:id="rId60">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>39</xdr:row>
+                <xdr:row>18</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>39</xdr:row>
+                <xdr:row>18</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4919,24 +4919,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2081" r:id="rId59" name="Control 33"/>
+        <control shapeId="2065" r:id="rId59" name="Control 17"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2085" r:id="rId61" name="Control 37">
+        <control shapeId="2061" r:id="rId61" name="Control 13">
           <controlPr defaultSize="0" r:id="rId62">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>40</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>40</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4944,24 +4944,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2085" r:id="rId61" name="Control 37"/>
+        <control shapeId="2061" r:id="rId61" name="Control 13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2089" r:id="rId63" name="Control 41">
+        <control shapeId="2057" r:id="rId63" name="Control 9">
           <controlPr defaultSize="0" r:id="rId64">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>16</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>16</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4969,24 +4969,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2089" r:id="rId63" name="Control 41"/>
+        <control shapeId="2057" r:id="rId63" name="Control 9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2093" r:id="rId65" name="Control 45">
+        <control shapeId="2053" r:id="rId65" name="Control 5">
           <controlPr defaultSize="0" r:id="rId66">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>42</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>42</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4994,24 +4994,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2093" r:id="rId65" name="Control 45"/>
+        <control shapeId="2053" r:id="rId65" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2097" r:id="rId67" name="Control 49">
+        <control shapeId="2049" r:id="rId67" name="Control 1">
           <controlPr defaultSize="0" r:id="rId68">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -5019,7 +5019,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2097" r:id="rId67" name="Control 49"/>
+        <control shapeId="2049" r:id="rId67" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/original-passwords.xlsx
+++ b/original-passwords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DVIR\Desktop\vacation-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AAFD13-DCB6-40B0-9345-A2B16E0A05BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5CBD24-4BB7-4E74-A196-F8A4E13AA998}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="2388" windowHeight="564" xr2:uid="{5CA44154-9081-4FF7-98E5-37C7DA4D7CEF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CA44154-9081-4FF7-98E5-37C7DA4D7CEF}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון2" sheetId="2" r:id="rId1"/>
@@ -3915,7 +3915,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -4699,19 +4699,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2097" r:id="rId43" name="Control 49">
+        <control shapeId="2049" r:id="rId43" name="Control 1">
           <controlPr defaultSize="0" r:id="rId44">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4719,24 +4719,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2097" r:id="rId43" name="Control 49"/>
+        <control shapeId="2049" r:id="rId43" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2093" r:id="rId45" name="Control 45">
+        <control shapeId="2053" r:id="rId45" name="Control 5">
           <controlPr defaultSize="0" r:id="rId46">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>42</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>42</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4744,24 +4744,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2093" r:id="rId45" name="Control 45"/>
+        <control shapeId="2053" r:id="rId45" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2089" r:id="rId47" name="Control 41">
+        <control shapeId="2057" r:id="rId47" name="Control 9">
           <controlPr defaultSize="0" r:id="rId48">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>16</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>16</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4769,24 +4769,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2089" r:id="rId47" name="Control 41"/>
+        <control shapeId="2057" r:id="rId47" name="Control 9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2085" r:id="rId49" name="Control 37">
+        <control shapeId="2061" r:id="rId49" name="Control 13">
           <controlPr defaultSize="0" r:id="rId50">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>40</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>40</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4794,24 +4794,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2085" r:id="rId49" name="Control 37"/>
+        <control shapeId="2061" r:id="rId49" name="Control 13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2081" r:id="rId51" name="Control 33">
+        <control shapeId="2065" r:id="rId51" name="Control 17">
           <controlPr defaultSize="0" r:id="rId52">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>39</xdr:row>
+                <xdr:row>18</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>39</xdr:row>
+                <xdr:row>18</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4819,24 +4819,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2081" r:id="rId51" name="Control 33"/>
+        <control shapeId="2065" r:id="rId51" name="Control 17"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2077" r:id="rId53" name="Control 29">
+        <control shapeId="2069" r:id="rId53" name="Control 21">
           <controlPr defaultSize="0" r:id="rId54">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>38</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>38</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4844,7 +4844,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2077" r:id="rId53" name="Control 29"/>
+        <control shapeId="2069" r:id="rId53" name="Control 21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -4874,19 +4874,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2069" r:id="rId57" name="Control 21">
+        <control shapeId="2077" r:id="rId57" name="Control 29">
           <controlPr defaultSize="0" r:id="rId58">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>38</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>38</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4894,24 +4894,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2069" r:id="rId57" name="Control 21"/>
+        <control shapeId="2077" r:id="rId57" name="Control 29"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2065" r:id="rId59" name="Control 17">
+        <control shapeId="2081" r:id="rId59" name="Control 33">
           <controlPr defaultSize="0" r:id="rId60">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>18</xdr:row>
+                <xdr:row>39</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
+                <xdr:row>39</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4919,24 +4919,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2065" r:id="rId59" name="Control 17"/>
+        <control shapeId="2081" r:id="rId59" name="Control 33"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2061" r:id="rId61" name="Control 13">
+        <control shapeId="2085" r:id="rId61" name="Control 37">
           <controlPr defaultSize="0" r:id="rId62">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>40</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>40</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4944,24 +4944,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2061" r:id="rId61" name="Control 13"/>
+        <control shapeId="2085" r:id="rId61" name="Control 37"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2057" r:id="rId63" name="Control 9">
+        <control shapeId="2089" r:id="rId63" name="Control 41">
           <controlPr defaultSize="0" r:id="rId64">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>16</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4969,24 +4969,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2057" r:id="rId63" name="Control 9"/>
+        <control shapeId="2089" r:id="rId63" name="Control 41"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId65" name="Control 5">
+        <control shapeId="2093" r:id="rId65" name="Control 45">
           <controlPr defaultSize="0" r:id="rId66">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>42</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>42</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4994,24 +4994,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2053" r:id="rId65" name="Control 5"/>
+        <control shapeId="2093" r:id="rId65" name="Control 45"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId67" name="Control 1">
+        <control shapeId="2097" r:id="rId67" name="Control 49">
           <controlPr defaultSize="0" r:id="rId68">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -5019,7 +5019,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2049" r:id="rId67" name="Control 1"/>
+        <control shapeId="2097" r:id="rId67" name="Control 49"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/original-passwords.xlsx
+++ b/original-passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DVIR\Desktop\vacation-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5CBD24-4BB7-4E74-A196-F8A4E13AA998}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C86164D4-79B2-4077-98D4-136182D18A41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CA44154-9081-4FF7-98E5-37C7DA4D7CEF}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="גיליון1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3915,7 +3916,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>

--- a/original-passwords.xlsx
+++ b/original-passwords.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DVIR\Desktop\vacation-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DVIR\Desktop\JohnBrace\Projects\Project3\vacation-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C86164D4-79B2-4077-98D4-136182D18A41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB131293-27A7-4311-8450-AD5EBAD693A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CA44154-9081-4FF7-98E5-37C7DA4D7CEF}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="גיליון1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4700,19 +4699,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId43" name="Control 1">
+        <control shapeId="2097" r:id="rId43" name="Control 49">
           <controlPr defaultSize="0" r:id="rId44">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4720,24 +4719,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2049" r:id="rId43" name="Control 1"/>
+        <control shapeId="2097" r:id="rId43" name="Control 49"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId45" name="Control 5">
+        <control shapeId="2093" r:id="rId45" name="Control 45">
           <controlPr defaultSize="0" r:id="rId46">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>42</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>42</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4745,24 +4744,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2053" r:id="rId45" name="Control 5"/>
+        <control shapeId="2093" r:id="rId45" name="Control 45"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2057" r:id="rId47" name="Control 9">
+        <control shapeId="2089" r:id="rId47" name="Control 41">
           <controlPr defaultSize="0" r:id="rId48">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>16</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4770,24 +4769,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2057" r:id="rId47" name="Control 9"/>
+        <control shapeId="2089" r:id="rId47" name="Control 41"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2061" r:id="rId49" name="Control 13">
+        <control shapeId="2085" r:id="rId49" name="Control 37">
           <controlPr defaultSize="0" r:id="rId50">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>40</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>40</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4795,24 +4794,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2061" r:id="rId49" name="Control 13"/>
+        <control shapeId="2085" r:id="rId49" name="Control 37"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2065" r:id="rId51" name="Control 17">
+        <control shapeId="2081" r:id="rId51" name="Control 33">
           <controlPr defaultSize="0" r:id="rId52">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>18</xdr:row>
+                <xdr:row>39</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
+                <xdr:row>39</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4820,24 +4819,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2065" r:id="rId51" name="Control 17"/>
+        <control shapeId="2081" r:id="rId51" name="Control 33"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2069" r:id="rId53" name="Control 21">
+        <control shapeId="2077" r:id="rId53" name="Control 29">
           <controlPr defaultSize="0" r:id="rId54">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>38</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>38</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4845,7 +4844,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2069" r:id="rId53" name="Control 21"/>
+        <control shapeId="2077" r:id="rId53" name="Control 29"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -4875,19 +4874,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2077" r:id="rId57" name="Control 29">
+        <control shapeId="2069" r:id="rId57" name="Control 21">
           <controlPr defaultSize="0" r:id="rId58">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>38</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>38</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4895,24 +4894,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2077" r:id="rId57" name="Control 29"/>
+        <control shapeId="2069" r:id="rId57" name="Control 21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2081" r:id="rId59" name="Control 33">
+        <control shapeId="2065" r:id="rId59" name="Control 17">
           <controlPr defaultSize="0" r:id="rId60">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>39</xdr:row>
+                <xdr:row>18</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>39</xdr:row>
+                <xdr:row>18</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4920,24 +4919,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2081" r:id="rId59" name="Control 33"/>
+        <control shapeId="2065" r:id="rId59" name="Control 17"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2085" r:id="rId61" name="Control 37">
+        <control shapeId="2061" r:id="rId61" name="Control 13">
           <controlPr defaultSize="0" r:id="rId62">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>40</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>40</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4945,24 +4944,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2085" r:id="rId61" name="Control 37"/>
+        <control shapeId="2061" r:id="rId61" name="Control 13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2089" r:id="rId63" name="Control 41">
+        <control shapeId="2057" r:id="rId63" name="Control 9">
           <controlPr defaultSize="0" r:id="rId64">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>16</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>16</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4970,24 +4969,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2089" r:id="rId63" name="Control 41"/>
+        <control shapeId="2057" r:id="rId63" name="Control 9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2093" r:id="rId65" name="Control 45">
+        <control shapeId="2053" r:id="rId65" name="Control 5">
           <controlPr defaultSize="0" r:id="rId66">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>42</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>42</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4995,24 +4994,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2093" r:id="rId65" name="Control 45"/>
+        <control shapeId="2053" r:id="rId65" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2097" r:id="rId67" name="Control 49">
+        <control shapeId="2049" r:id="rId67" name="Control 1">
           <controlPr defaultSize="0" r:id="rId68">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -5020,7 +5019,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2097" r:id="rId67" name="Control 49"/>
+        <control shapeId="2049" r:id="rId67" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/original-passwords.xlsx
+++ b/original-passwords.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DVIR\Desktop\JohnBrace\Projects\Project3\vacation-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learning\Projects\Project3\vacation-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB131293-27A7-4311-8450-AD5EBAD693A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E8EDC3-ED52-43A0-81CE-9C1AE02E6CD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CA44154-9081-4FF7-98E5-37C7DA4D7CEF}"/>
   </bookViews>
@@ -3915,7 +3915,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -4699,19 +4699,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2097" r:id="rId43" name="Control 49">
+        <control shapeId="2049" r:id="rId43" name="Control 1">
           <controlPr defaultSize="0" r:id="rId44">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4719,24 +4719,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2097" r:id="rId43" name="Control 49"/>
+        <control shapeId="2049" r:id="rId43" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2093" r:id="rId45" name="Control 45">
+        <control shapeId="2053" r:id="rId45" name="Control 5">
           <controlPr defaultSize="0" r:id="rId46">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>42</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>42</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4744,24 +4744,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2093" r:id="rId45" name="Control 45"/>
+        <control shapeId="2053" r:id="rId45" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2089" r:id="rId47" name="Control 41">
+        <control shapeId="2057" r:id="rId47" name="Control 9">
           <controlPr defaultSize="0" r:id="rId48">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>16</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>16</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4769,24 +4769,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2089" r:id="rId47" name="Control 41"/>
+        <control shapeId="2057" r:id="rId47" name="Control 9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2085" r:id="rId49" name="Control 37">
+        <control shapeId="2061" r:id="rId49" name="Control 13">
           <controlPr defaultSize="0" r:id="rId50">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>40</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>40</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4794,24 +4794,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2085" r:id="rId49" name="Control 37"/>
+        <control shapeId="2061" r:id="rId49" name="Control 13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2081" r:id="rId51" name="Control 33">
+        <control shapeId="2065" r:id="rId51" name="Control 17">
           <controlPr defaultSize="0" r:id="rId52">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>39</xdr:row>
+                <xdr:row>18</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>39</xdr:row>
+                <xdr:row>18</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4819,24 +4819,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2081" r:id="rId51" name="Control 33"/>
+        <control shapeId="2065" r:id="rId51" name="Control 17"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2077" r:id="rId53" name="Control 29">
+        <control shapeId="2069" r:id="rId53" name="Control 21">
           <controlPr defaultSize="0" r:id="rId54">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>38</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>38</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4844,7 +4844,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2077" r:id="rId53" name="Control 29"/>
+        <control shapeId="2069" r:id="rId53" name="Control 21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -4874,19 +4874,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2069" r:id="rId57" name="Control 21">
+        <control shapeId="2077" r:id="rId57" name="Control 29">
           <controlPr defaultSize="0" r:id="rId58">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>38</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>38</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4894,24 +4894,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2069" r:id="rId57" name="Control 21"/>
+        <control shapeId="2077" r:id="rId57" name="Control 29"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2065" r:id="rId59" name="Control 17">
+        <control shapeId="2081" r:id="rId59" name="Control 33">
           <controlPr defaultSize="0" r:id="rId60">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>18</xdr:row>
+                <xdr:row>39</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
+                <xdr:row>39</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4919,24 +4919,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2065" r:id="rId59" name="Control 17"/>
+        <control shapeId="2081" r:id="rId59" name="Control 33"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2061" r:id="rId61" name="Control 13">
+        <control shapeId="2085" r:id="rId61" name="Control 37">
           <controlPr defaultSize="0" r:id="rId62">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>40</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>40</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4944,24 +4944,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2061" r:id="rId61" name="Control 13"/>
+        <control shapeId="2085" r:id="rId61" name="Control 37"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2057" r:id="rId63" name="Control 9">
+        <control shapeId="2089" r:id="rId63" name="Control 41">
           <controlPr defaultSize="0" r:id="rId64">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>16</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4969,24 +4969,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2057" r:id="rId63" name="Control 9"/>
+        <control shapeId="2089" r:id="rId63" name="Control 41"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId65" name="Control 5">
+        <control shapeId="2093" r:id="rId65" name="Control 45">
           <controlPr defaultSize="0" r:id="rId66">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>42</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>42</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -4994,24 +4994,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2053" r:id="rId65" name="Control 5"/>
+        <control shapeId="2093" r:id="rId65" name="Control 45"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId67" name="Control 1">
+        <control shapeId="2097" r:id="rId67" name="Control 49">
           <controlPr defaultSize="0" r:id="rId68">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
@@ -5019,7 +5019,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2049" r:id="rId67" name="Control 1"/>
+        <control shapeId="2097" r:id="rId67" name="Control 49"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/original-passwords.xlsx
+++ b/original-passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learning\Projects\Project3\vacation-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D7B323-1145-40D2-8BFA-7E3DE9ADF7D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B939570E-45F8-4738-AFBA-D754A46EF768}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CA44154-9081-4FF7-98E5-37C7DA4D7CEF}"/>
   </bookViews>
@@ -631,7 +631,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>

--- a/original-passwords.xlsx
+++ b/original-passwords.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learning\Projects\Project3\vacation-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B939570E-45F8-4738-AFBA-D754A46EF768}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5D3380-EF82-4C8D-B292-8B98BF32A9FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CA44154-9081-4FF7-98E5-37C7DA4D7CEF}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון2" sheetId="2" r:id="rId1"/>
+    <sheet name="גיליון1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
   <si>
     <t>DOM</t>
   </si>
@@ -166,13 +167,1566 @@
   </si>
   <si>
     <t>JDO500FDK3</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>  }</t>
+  </si>
+  <si>
+    <r>
+      <t>::-webkit-scrollbar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>width</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10px</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>border-radius</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10px</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD7BA7D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>::-webkit-scrollbar-track</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>border-radius</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10px</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>box-shadow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>inset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>6px</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>rgba</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>width</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5px</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>::-webkit-scrollbar-thumb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>height</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5px</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>box-shadow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>inset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>6px</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>rgba</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>::-webkit-scrollbar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>width</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10px</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>border-radius</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10px</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>::-webkit-scrollbar-thumb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>box-shadow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>inset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>6px</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>rgba</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>::-webkit-scrollbar-track</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>box-shadow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>inset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>6px</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>rgba</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>width</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5px</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>background-color</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>white</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>cursor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>pointer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>height</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>15px</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>width</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>15px</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>background-color</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>grey</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>::-webkit-scrollbar-thumb:hover</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>box-shadow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>11px</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>rgba</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>33</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>33</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>33</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>); </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,8 +1797,80 @@
       <charset val="177"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFD7BA7D"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFB5CEA8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFDCDCAA"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFD7BA7D"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFB5CEA8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFDCDCAA"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,6 +1901,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1E1E1E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -289,7 +1921,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -313,6 +1945,24 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - הדגשה3" xfId="1" builtinId="39"/>
@@ -631,7 +2281,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -887,4 +2537,254 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE19AA8-E561-4133-B133-935F757D5FB1}">
+  <dimension ref="D6:Q29"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G15" sqref="D15:G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="14" max="17" width="8.796875" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="4:17" ht="18" x14ac:dyDescent="0.3">
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="4:17" ht="18" x14ac:dyDescent="0.3">
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="4:17" ht="18" x14ac:dyDescent="0.3">
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="4:17" ht="18" x14ac:dyDescent="0.3">
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q9" s="15"/>
+    </row>
+    <row r="10" spans="4:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="18"/>
+      <c r="Q10" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="4:17" ht="18" x14ac:dyDescent="0.3">
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q11" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="4:17" ht="18" x14ac:dyDescent="0.3">
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q12" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="4:17" ht="18" x14ac:dyDescent="0.3">
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q13" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="4:17" ht="18" x14ac:dyDescent="0.3">
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q14" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="4:17" ht="18" x14ac:dyDescent="0.3">
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q15" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="4:17" ht="18" x14ac:dyDescent="0.3">
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q16" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="4:17" ht="18" x14ac:dyDescent="0.3">
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q17" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="4:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="18"/>
+      <c r="Q18" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="4:17" ht="18" x14ac:dyDescent="0.3">
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q19" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="4:17" ht="18" x14ac:dyDescent="0.3">
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="4:17" ht="18" x14ac:dyDescent="0.3">
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="4:17" ht="18" x14ac:dyDescent="0.3">
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="4:17" ht="18" x14ac:dyDescent="0.3">
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="4:17" ht="18" x14ac:dyDescent="0.3">
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q24" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="4:17" ht="18" x14ac:dyDescent="0.3">
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="4:17" ht="18" x14ac:dyDescent="0.3">
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="4:17" ht="18" x14ac:dyDescent="0.3">
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="4:17" ht="18" x14ac:dyDescent="0.3">
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="4:17" ht="18" x14ac:dyDescent="0.3">
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/original-passwords.xlsx
+++ b/original-passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learning\Projects\Project3\vacation-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5D3380-EF82-4C8D-B292-8B98BF32A9FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7E694B-41DD-4979-9FE2-C6119858DED4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CA44154-9081-4FF7-98E5-37C7DA4D7CEF}"/>
   </bookViews>
@@ -2281,7 +2281,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>

--- a/original-passwords.xlsx
+++ b/original-passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learning\Projects\Project3\vacation-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7E694B-41DD-4979-9FE2-C6119858DED4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9177D22-0865-422A-BE47-4AC2A96E05F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CA44154-9081-4FF7-98E5-37C7DA4D7CEF}"/>
   </bookViews>
@@ -2281,7 +2281,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
